--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-topk-masking-0.1/avg_0.002_scores.xlsx
@@ -40,6 +40,15 @@
     <t>name</t>
   </si>
   <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
     <t>horrible</t>
   </si>
   <si>
@@ -49,27 +58,18 @@
     <t>terrifying</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
     <t>worst</t>
   </si>
   <si>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>insane</t>
   </si>
   <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>boring</t>
   </si>
   <si>
@@ -82,54 +82,51 @@
     <t>dangerous</t>
   </si>
   <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>scary</t>
+  </si>
+  <si>
     <t>sorry</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>weird</t>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>behind</t>
   </si>
   <si>
     <t>sick</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>frightening</t>
+    <t>dark</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>dark</t>
-  </si>
-  <si>
     <t>bad</t>
   </si>
   <si>
@@ -145,58 +142,67 @@
     <t>[UNK]</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
     <t>brilliant</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>best</t>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>love</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
+    <t>essential</t>
+  </si>
+  <si>
     <t>top</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>first</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>worth</t>
+    <t>2020</t>
   </si>
   <si>
     <t>new</t>
@@ -205,21 +211,18 @@
     <t>social</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>right</t>
+    <t>really</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>real</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
@@ -229,25 +232,22 @@
     <t>watching</t>
   </si>
   <si>
+    <t>netflix</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>netflix</t>
+    <t>’</t>
   </si>
   <si>
     <t>dilemma</t>
   </si>
   <si>
+    <t>…</t>
+  </si>
+  <si>
     <t>watch</t>
-  </si>
-  <si>
-    <t>’</t>
-  </si>
-  <si>
-    <t>…</t>
   </si>
   <si>
     <t>positive</t>
@@ -608,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,7 +616,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J1" t="s">
         <v>78</v>
@@ -680,10 +680,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -698,16 +698,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -727,13 +727,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9423076923076923</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>98</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -745,19 +745,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="M4">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -777,13 +777,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9393939393939394</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -827,13 +827,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -845,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>0.9</v>
       </c>
       <c r="L6">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M6">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -877,13 +877,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="C7">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="D7">
-        <v>27</v>
+        <v>98</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -895,19 +895,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="L7">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M7">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -927,13 +927,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -945,19 +945,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K8">
-        <v>0.8</v>
+        <v>0.7719298245614035</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="M8">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -977,13 +977,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8888888888888888</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -995,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K9">
-        <v>0.7333333333333333</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L9">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M9">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1019,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1027,13 +1027,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8461538461538461</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1048,16 +1048,16 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="L10">
         <v>50</v>
       </c>
-      <c r="K10">
-        <v>0.7192982456140351</v>
-      </c>
-      <c r="L10">
-        <v>41</v>
-      </c>
       <c r="M10">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,10 +1080,10 @@
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11">
-        <v>0.6842105263157895</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,10 +1130,10 @@
         <v>0.8</v>
       </c>
       <c r="C12">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D12">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1145,19 +1145,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12">
-        <v>0.6551724137931034</v>
+        <v>0.6</v>
       </c>
       <c r="L12">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="M12">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1169,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1198,16 +1198,16 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K13">
-        <v>0.6166666666666667</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L13">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="M13">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1248,16 +1248,16 @@
         <v>4</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K14">
-        <v>0.6153846153846154</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M14">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1298,16 +1298,16 @@
         <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K15">
-        <v>0.6153846153846154</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M15">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1319,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1348,16 +1348,16 @@
         <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K16">
-        <v>0.5555555555555556</v>
+        <v>0.5166666666666667</v>
       </c>
       <c r="L16">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1377,13 +1377,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7272727272727273</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C17">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D17">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1395,19 +1395,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K17">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="L17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="M17">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1427,13 +1427,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7058823529411765</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C18">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1445,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>0.4242424242424243</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L18">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M18">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1477,13 +1477,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7</v>
+        <v>0.6875</v>
       </c>
       <c r="C19">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D19">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1495,31 +1495,31 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K19">
-        <v>0.375</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="L19">
+        <v>15</v>
+      </c>
+      <c r="M19">
+        <v>15</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>18</v>
-      </c>
-      <c r="M19">
-        <v>18</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1527,13 +1527,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6875</v>
+        <v>0.675</v>
       </c>
       <c r="C20">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1545,19 +1545,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L20">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="M20">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1569,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1577,13 +1577,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6595744680851063</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C21">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1595,19 +1595,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21">
-        <v>0.2372881355932203</v>
+        <v>0.3611111111111111</v>
       </c>
       <c r="L21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1619,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1627,13 +1627,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6153846153846154</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1645,19 +1645,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K22">
-        <v>0.2213114754098361</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L22">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>855</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1677,13 +1677,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5833333333333334</v>
+        <v>0.6</v>
       </c>
       <c r="C23">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1695,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K23">
-        <v>0.1707317073170732</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M23">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1727,13 +1727,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5714285714285714</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C24">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1745,19 +1745,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K24">
-        <v>0.1666666666666667</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L24">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1769,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1777,13 +1777,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5652173913043478</v>
+        <v>0.5507246376811594</v>
       </c>
       <c r="C25">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1795,19 +1795,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K25">
-        <v>0.1639344262295082</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L25">
-        <v>10</v>
+        <v>244</v>
       </c>
       <c r="M25">
-        <v>10</v>
+        <v>244</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>51</v>
+        <v>854</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1827,13 +1827,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.55</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="C26">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1845,19 +1845,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K26">
-        <v>0.1263157894736842</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="L26">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="M26">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1877,13 +1877,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1895,19 +1895,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K27">
-        <v>0.1111111111111111</v>
+        <v>0.1475409836065574</v>
       </c>
       <c r="L27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="M27">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1927,13 +1927,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4782608695652174</v>
+        <v>0.5</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1945,13 +1945,13 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K28">
-        <v>0.09859154929577464</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L28">
         <v>7</v>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1977,13 +1977,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4705882352941176</v>
+        <v>0.5</v>
       </c>
       <c r="C29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1995,19 +1995,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K29">
-        <v>0.04379562043795621</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="L29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M29">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>131</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2027,13 +2027,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4615384615384616</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2045,19 +2045,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K30">
-        <v>0.03812316715542522</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="L30">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="M30">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>328</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2098,16 +2098,16 @@
         <v>13</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K31">
-        <v>0.03313253012048193</v>
+        <v>0.04379562043795621</v>
       </c>
       <c r="L31">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>642</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2127,13 +2127,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4285714285714285</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="C32">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D32">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2145,19 +2145,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K32">
-        <v>0.02473498233215548</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="L32">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="M32">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>276</v>
+        <v>330</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2177,13 +2177,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3846153846153846</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2195,19 +2195,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K33">
-        <v>0.02407407407407407</v>
+        <v>0.02592592592592593</v>
       </c>
       <c r="L33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M33">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2219,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2227,13 +2227,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3571428571428572</v>
+        <v>0.25</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K34">
-        <v>0.02222222222222222</v>
+        <v>0.02560240963855422</v>
       </c>
       <c r="L34">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="M34">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>308</v>
+        <v>647</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2277,13 +2277,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.25</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C35">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D35">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2295,19 +2295,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K35">
-        <v>0.01948051948051948</v>
+        <v>0.02176696542893726</v>
       </c>
       <c r="L35">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>604</v>
+        <v>764</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2327,99 +2327,101 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1153846153846154</v>
+        <v>0.03716216216216216</v>
       </c>
       <c r="C36">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D36">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.79</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>69</v>
+        <v>285</v>
       </c>
       <c r="J36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K36">
+        <v>0.01904761904761905</v>
+      </c>
+      <c r="L36">
+        <v>6</v>
+      </c>
+      <c r="M36">
+        <v>6</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="J37" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K36">
-        <v>0.01280409731113956</v>
-      </c>
-      <c r="L36">
-        <v>10</v>
-      </c>
-      <c r="M36">
-        <v>10</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="A37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37">
-        <v>0.04026845637583892</v>
-      </c>
-      <c r="C37">
-        <v>12</v>
-      </c>
-      <c r="D37">
-        <v>13</v>
-      </c>
-      <c r="E37">
-        <v>0.08</v>
-      </c>
-      <c r="F37">
-        <v>0.92</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>286</v>
-      </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37">
+        <v>0.01267281105990783</v>
+      </c>
+      <c r="L37">
+        <v>22</v>
+      </c>
+      <c r="M37">
+        <v>22</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="J38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="K37">
-        <v>0.009792626728110598</v>
-      </c>
-      <c r="L37">
-        <v>17</v>
-      </c>
-      <c r="M37">
-        <v>17</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>1719</v>
+      <c r="K38">
+        <v>0.01136363636363636</v>
+      </c>
+      <c r="L38">
+        <v>7</v>
+      </c>
+      <c r="M38">
+        <v>7</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>609</v>
       </c>
     </row>
   </sheetData>
